--- a/CodeChallenge.xlsx
+++ b/CodeChallenge.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Khine/Documents/Khine/CodeChallenge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Khine/Documents/Khine/CodeChallenge/CodeChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="3080" windowWidth="27360" windowHeight="14860" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="2220" windowWidth="27360" windowHeight="14860" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>No</t>
   </si>
@@ -217,6 +217,9 @@
 ii)Enter Login ID 
 iii) Verify Checkbox of I'm not a robot 
 iv) Click Submit</t>
+  </si>
+  <si>
+    <t>as expected</t>
   </si>
 </sst>
 </file>
@@ -343,10 +346,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,7 +704,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -713,7 +716,7 @@
     <col min="6" max="6" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -796,10 +799,10 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -873,7 +876,7 @@
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -884,7 +887,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="B12" s="14"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="12" t="s">
         <v>54</v>
       </c>
@@ -896,11 +899,14 @@
       <c r="A13">
         <v>4</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>55</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
